--- a/data/eacl_2024/new_data/inputs.xlsx
+++ b/data/eacl_2024/new_data/inputs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuwei/PycharmProjects/eacl2024-miniconf/data/eacl_2024/new_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488F886-E689-4145-B47E-7F1AC6C56150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24940" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials Schedule" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
     <sheet name="Breaks Schedule" sheetId="7" r:id="rId7"/>
     <sheet name="Affinity Groups &amp; BoF" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="1310">
   <si>
     <t>Date</t>
   </si>
@@ -3957,11 +3963,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4038,13 +4044,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4082,7 +4096,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4116,6 +4130,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4150,9 +4165,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4325,14 +4341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45372</v>
       </c>
@@ -4390,7 +4406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45372</v>
       </c>
@@ -4419,7 +4435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45372</v>
       </c>
@@ -4448,7 +4464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45372</v>
       </c>
@@ -4477,7 +4493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45372</v>
       </c>
@@ -4512,14 +4528,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45372</v>
       </c>
@@ -4588,14 +4608,11 @@
       <c r="J2" t="s">
         <v>153</v>
       </c>
-      <c r="K2" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45372</v>
       </c>
@@ -4623,14 +4640,11 @@
       <c r="I3" t="s">
         <v>151</v>
       </c>
-      <c r="K3" t="s">
-        <v>113</v>
-      </c>
       <c r="L3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45372</v>
       </c>
@@ -4658,14 +4672,11 @@
       <c r="I4" t="s">
         <v>150</v>
       </c>
-      <c r="K4" t="s">
-        <v>114</v>
-      </c>
       <c r="L4" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45372</v>
       </c>
@@ -4696,14 +4707,11 @@
       <c r="J5" t="s">
         <v>154</v>
       </c>
-      <c r="K5" t="s">
-        <v>115</v>
-      </c>
       <c r="L5" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45372</v>
       </c>
@@ -4731,14 +4739,11 @@
       <c r="I6" t="s">
         <v>150</v>
       </c>
-      <c r="K6" t="s">
-        <v>116</v>
-      </c>
       <c r="L6" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45372</v>
       </c>
@@ -4763,14 +4768,11 @@
       <c r="H7" t="s">
         <v>136</v>
       </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
       <c r="L7" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45372</v>
       </c>
@@ -4798,14 +4800,11 @@
       <c r="I8" t="s">
         <v>152</v>
       </c>
-      <c r="K8" t="s">
-        <v>118</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45372</v>
       </c>
@@ -4833,14 +4832,11 @@
       <c r="I9" t="s">
         <v>150</v>
       </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45373</v>
       </c>
@@ -4868,14 +4864,11 @@
       <c r="I10" t="s">
         <v>151</v>
       </c>
-      <c r="K10" t="s">
-        <v>120</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45373</v>
       </c>
@@ -4903,14 +4896,11 @@
       <c r="I11" t="s">
         <v>151</v>
       </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
       <c r="L11" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45373</v>
       </c>
@@ -4938,14 +4928,11 @@
       <c r="I12" t="s">
         <v>152</v>
       </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45373</v>
       </c>
@@ -4976,14 +4963,11 @@
       <c r="J13" t="s">
         <v>155</v>
       </c>
-      <c r="K13" t="s">
-        <v>123</v>
-      </c>
       <c r="L13" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45373</v>
       </c>
@@ -5011,14 +4995,11 @@
       <c r="I14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45373</v>
       </c>
@@ -5049,14 +5030,11 @@
       <c r="J15" t="s">
         <v>156</v>
       </c>
-      <c r="K15" t="s">
-        <v>125</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45373</v>
       </c>
@@ -5087,14 +5065,11 @@
       <c r="J16" t="s">
         <v>157</v>
       </c>
-      <c r="K16" t="s">
-        <v>126</v>
-      </c>
       <c r="L16" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45373</v>
       </c>
@@ -5122,14 +5097,11 @@
       <c r="I17" t="s">
         <v>151</v>
       </c>
-      <c r="K17" t="s">
-        <v>127</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45373</v>
       </c>
@@ -5160,14 +5132,11 @@
       <c r="J18" t="s">
         <v>158</v>
       </c>
-      <c r="K18" t="s">
-        <v>128</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45373</v>
       </c>
@@ -5198,14 +5167,11 @@
       <c r="J19" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s">
-        <v>129</v>
-      </c>
       <c r="L19" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45373</v>
       </c>
@@ -5233,14 +5199,11 @@
       <c r="I20" t="s">
         <v>151</v>
       </c>
-      <c r="K20" t="s">
-        <v>130</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45373</v>
       </c>
@@ -5268,49 +5231,52 @@
       <c r="I21" t="s">
         <v>150</v>
       </c>
-      <c r="K21" t="s">
-        <v>119</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="L5" r:id="rId4"/>
-    <hyperlink ref="L6" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
-    <hyperlink ref="L9" r:id="rId8"/>
-    <hyperlink ref="L10" r:id="rId9"/>
-    <hyperlink ref="L11" r:id="rId10"/>
-    <hyperlink ref="L12" r:id="rId11"/>
-    <hyperlink ref="L13" r:id="rId12"/>
-    <hyperlink ref="L14" r:id="rId13"/>
-    <hyperlink ref="L15" r:id="rId14"/>
-    <hyperlink ref="L16" r:id="rId15"/>
-    <hyperlink ref="L17" r:id="rId16"/>
-    <hyperlink ref="L18" r:id="rId17"/>
-    <hyperlink ref="L19" r:id="rId18"/>
-    <hyperlink ref="L20" r:id="rId19"/>
-    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="L17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="L21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5348,7 +5314,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45369</v>
       </c>
@@ -5358,9 +5324,6 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
         <v>192</v>
       </c>
@@ -5383,7 +5346,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45369</v>
       </c>
@@ -5393,9 +5356,6 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
         <v>193</v>
       </c>
@@ -5418,7 +5378,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45370</v>
       </c>
@@ -5428,9 +5388,6 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
         <v>194</v>
       </c>
@@ -5453,7 +5410,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45370</v>
       </c>
@@ -5463,9 +5420,6 @@
       <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
         <v>195</v>
       </c>
@@ -5488,7 +5442,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45371</v>
       </c>
@@ -5498,9 +5452,6 @@
       <c r="C6" t="s">
         <v>190</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
         <v>196</v>
       </c>
@@ -5523,7 +5474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45371</v>
       </c>
@@ -5533,9 +5484,6 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
         <v>192</v>
       </c>
@@ -5558,7 +5506,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45371</v>
       </c>
@@ -5567,9 +5515,6 @@
       </c>
       <c r="C8" t="s">
         <v>191</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>192</v>
@@ -5599,14 +5544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5577,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45369</v>
       </c>
@@ -5658,7 +5603,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45369</v>
       </c>
@@ -5684,7 +5629,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45369</v>
       </c>
@@ -5710,7 +5655,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45369</v>
       </c>
@@ -5736,7 +5681,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45369</v>
       </c>
@@ -5762,7 +5707,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45369</v>
       </c>
@@ -5788,7 +5733,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45369</v>
       </c>
@@ -5814,7 +5759,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45369</v>
       </c>
@@ -5840,7 +5785,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45369</v>
       </c>
@@ -5866,7 +5811,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45369</v>
       </c>
@@ -5892,7 +5837,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45369</v>
       </c>
@@ -5918,7 +5863,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45369</v>
       </c>
@@ -5944,7 +5889,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45369</v>
       </c>
@@ -5970,7 +5915,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45369</v>
       </c>
@@ -5996,7 +5941,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45369</v>
       </c>
@@ -6022,7 +5967,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45369</v>
       </c>
@@ -6048,7 +5993,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45369</v>
       </c>
@@ -6074,7 +6019,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45369</v>
       </c>
@@ -6100,7 +6045,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45369</v>
       </c>
@@ -6126,7 +6071,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45369</v>
       </c>
@@ -6152,7 +6097,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45369</v>
       </c>
@@ -6178,7 +6123,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45369</v>
       </c>
@@ -6204,7 +6149,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45369</v>
       </c>
@@ -6230,7 +6175,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45369</v>
       </c>
@@ -6256,7 +6201,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45369</v>
       </c>
@@ -6282,7 +6227,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45369</v>
       </c>
@@ -6308,7 +6253,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45369</v>
       </c>
@@ -6334,7 +6279,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45369</v>
       </c>
@@ -6360,7 +6305,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45369</v>
       </c>
@@ -6386,7 +6331,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45369</v>
       </c>
@@ -6412,7 +6357,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45369</v>
       </c>
@@ -6438,7 +6383,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45369</v>
       </c>
@@ -6464,7 +6409,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45369</v>
       </c>
@@ -6490,7 +6435,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45369</v>
       </c>
@@ -6516,7 +6461,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45369</v>
       </c>
@@ -6542,7 +6487,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45369</v>
       </c>
@@ -6568,7 +6513,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45369</v>
       </c>
@@ -6594,7 +6539,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45369</v>
       </c>
@@ -6620,7 +6565,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45369</v>
       </c>
@@ -6646,7 +6591,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45369</v>
       </c>
@@ -6672,7 +6617,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45369</v>
       </c>
@@ -6698,7 +6643,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45369</v>
       </c>
@@ -6724,7 +6669,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45369</v>
       </c>
@@ -6750,7 +6695,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45369</v>
       </c>
@@ -6776,7 +6721,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45369</v>
       </c>
@@ -6802,7 +6747,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45369</v>
       </c>
@@ -6828,7 +6773,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45369</v>
       </c>
@@ -6854,7 +6799,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45369</v>
       </c>
@@ -6880,7 +6825,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45369</v>
       </c>
@@ -6906,7 +6851,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45369</v>
       </c>
@@ -6932,7 +6877,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45369</v>
       </c>
@@ -6958,7 +6903,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45369</v>
       </c>
@@ -6984,7 +6929,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45369</v>
       </c>
@@ -7010,7 +6955,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45369</v>
       </c>
@@ -7036,7 +6981,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45370</v>
       </c>
@@ -7062,7 +7007,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45370</v>
       </c>
@@ -7088,7 +7033,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45370</v>
       </c>
@@ -7114,7 +7059,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45370</v>
       </c>
@@ -7140,7 +7085,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45370</v>
       </c>
@@ -7166,7 +7111,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45370</v>
       </c>
@@ -7192,7 +7137,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45370</v>
       </c>
@@ -7218,7 +7163,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45370</v>
       </c>
@@ -7244,7 +7189,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45370</v>
       </c>
@@ -7270,7 +7215,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45370</v>
       </c>
@@ -7296,7 +7241,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45370</v>
       </c>
@@ -7322,7 +7267,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45370</v>
       </c>
@@ -7348,7 +7293,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45370</v>
       </c>
@@ -7374,7 +7319,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45370</v>
       </c>
@@ -7400,7 +7345,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45370</v>
       </c>
@@ -7426,7 +7371,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45370</v>
       </c>
@@ -7452,7 +7397,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45370</v>
       </c>
@@ -7478,7 +7423,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45370</v>
       </c>
@@ -7504,7 +7449,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45370</v>
       </c>
@@ -7530,7 +7475,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45370</v>
       </c>
@@ -7556,7 +7501,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45370</v>
       </c>
@@ -7582,7 +7527,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45370</v>
       </c>
@@ -7608,7 +7553,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45370</v>
       </c>
@@ -7634,7 +7579,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45370</v>
       </c>
@@ -7660,7 +7605,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45370</v>
       </c>
@@ -7686,7 +7631,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45370</v>
       </c>
@@ -7712,7 +7657,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45370</v>
       </c>
@@ -7738,7 +7683,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45370</v>
       </c>
@@ -7764,7 +7709,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45370</v>
       </c>
@@ -7790,7 +7735,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45370</v>
       </c>
@@ -7816,7 +7761,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45370</v>
       </c>
@@ -7842,7 +7787,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45370</v>
       </c>
@@ -7868,7 +7813,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45370</v>
       </c>
@@ -7894,7 +7839,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45370</v>
       </c>
@@ -7920,7 +7865,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45370</v>
       </c>
@@ -7946,7 +7891,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45370</v>
       </c>
@@ -7972,7 +7917,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45370</v>
       </c>
@@ -7998,7 +7943,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45370</v>
       </c>
@@ -8024,7 +7969,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45370</v>
       </c>
@@ -8050,7 +7995,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45370</v>
       </c>
@@ -8076,7 +8021,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45370</v>
       </c>
@@ -8102,7 +8047,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45370</v>
       </c>
@@ -8128,7 +8073,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45370</v>
       </c>
@@ -8154,7 +8099,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45370</v>
       </c>
@@ -8180,7 +8125,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45370</v>
       </c>
@@ -8206,7 +8151,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45370</v>
       </c>
@@ -8232,7 +8177,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45370</v>
       </c>
@@ -8258,7 +8203,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45370</v>
       </c>
@@ -8284,7 +8229,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45370</v>
       </c>
@@ -8310,7 +8255,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45370</v>
       </c>
@@ -8336,7 +8281,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45370</v>
       </c>
@@ -8362,7 +8307,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45370</v>
       </c>
@@ -8388,7 +8333,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45370</v>
       </c>
@@ -8414,7 +8359,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45370</v>
       </c>
@@ -8440,7 +8385,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45371</v>
       </c>
@@ -8466,7 +8411,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45371</v>
       </c>
@@ -8492,7 +8437,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45371</v>
       </c>
@@ -8518,7 +8463,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45371</v>
       </c>
@@ -8544,7 +8489,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45371</v>
       </c>
@@ -8570,7 +8515,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45371</v>
       </c>
@@ -8596,7 +8541,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45371</v>
       </c>
@@ -8622,7 +8567,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45371</v>
       </c>
@@ -8648,7 +8593,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45371</v>
       </c>
@@ -8674,7 +8619,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45371</v>
       </c>
@@ -8700,7 +8645,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45371</v>
       </c>
@@ -8726,7 +8671,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45371</v>
       </c>
@@ -8752,7 +8697,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45371</v>
       </c>
@@ -8778,7 +8723,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45371</v>
       </c>
@@ -8804,7 +8749,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45371</v>
       </c>
@@ -8830,7 +8775,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45371</v>
       </c>
@@ -8856,7 +8801,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45371</v>
       </c>
@@ -8882,7 +8827,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45371</v>
       </c>
@@ -8908,7 +8853,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45371</v>
       </c>
@@ -8934,7 +8879,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45371</v>
       </c>
@@ -8960,7 +8905,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45371</v>
       </c>
@@ -8986,7 +8931,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45371</v>
       </c>
@@ -9012,7 +8957,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45371</v>
       </c>
@@ -9038,7 +8983,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45371</v>
       </c>
@@ -9064,7 +9009,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45371</v>
       </c>
@@ -9090,7 +9035,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45371</v>
       </c>
@@ -9116,7 +9061,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45371</v>
       </c>
@@ -9142,7 +9087,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45371</v>
       </c>
@@ -9168,7 +9113,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45371</v>
       </c>
@@ -9194,7 +9139,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45371</v>
       </c>
@@ -9220,7 +9165,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45371</v>
       </c>
@@ -9246,7 +9191,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45371</v>
       </c>
@@ -9272,7 +9217,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45371</v>
       </c>
@@ -9298,7 +9243,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45371</v>
       </c>
@@ -9324,7 +9269,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45371</v>
       </c>
@@ -9350,7 +9295,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45371</v>
       </c>
@@ -9382,14 +9327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G287"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9412,7 +9357,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45369</v>
       </c>
@@ -9435,7 +9380,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45369</v>
       </c>
@@ -9458,7 +9403,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45369</v>
       </c>
@@ -9481,7 +9426,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45369</v>
       </c>
@@ -9504,7 +9449,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45369</v>
       </c>
@@ -9527,7 +9472,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45369</v>
       </c>
@@ -9550,7 +9495,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45369</v>
       </c>
@@ -9573,7 +9518,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45369</v>
       </c>
@@ -9596,7 +9541,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45369</v>
       </c>
@@ -9619,7 +9564,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45369</v>
       </c>
@@ -9642,7 +9587,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45369</v>
       </c>
@@ -9665,7 +9610,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45369</v>
       </c>
@@ -9688,7 +9633,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45369</v>
       </c>
@@ -9711,7 +9656,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45369</v>
       </c>
@@ -9734,7 +9679,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45369</v>
       </c>
@@ -9757,7 +9702,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45369</v>
       </c>
@@ -9777,7 +9722,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45369</v>
       </c>
@@ -9800,7 +9745,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45369</v>
       </c>
@@ -9823,7 +9768,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45369</v>
       </c>
@@ -9846,7 +9791,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45369</v>
       </c>
@@ -9869,7 +9814,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45369</v>
       </c>
@@ -9892,7 +9837,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45369</v>
       </c>
@@ -9915,7 +9860,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45369</v>
       </c>
@@ -9938,7 +9883,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45369</v>
       </c>
@@ -9961,7 +9906,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45369</v>
       </c>
@@ -9984,7 +9929,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45369</v>
       </c>
@@ -10007,7 +9952,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45369</v>
       </c>
@@ -10030,7 +9975,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45369</v>
       </c>
@@ -10053,7 +9998,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45369</v>
       </c>
@@ -10076,7 +10021,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45369</v>
       </c>
@@ -10096,7 +10041,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45369</v>
       </c>
@@ -10119,7 +10064,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45369</v>
       </c>
@@ -10142,7 +10087,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45369</v>
       </c>
@@ -10165,7 +10110,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45369</v>
       </c>
@@ -10188,7 +10133,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45369</v>
       </c>
@@ -10211,7 +10156,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45369</v>
       </c>
@@ -10234,7 +10179,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45369</v>
       </c>
@@ -10257,7 +10202,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45369</v>
       </c>
@@ -10280,7 +10225,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45369</v>
       </c>
@@ -10303,7 +10248,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45369</v>
       </c>
@@ -10326,7 +10271,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45369</v>
       </c>
@@ -10349,7 +10294,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45369</v>
       </c>
@@ -10372,7 +10317,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45369</v>
       </c>
@@ -10395,7 +10340,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45369</v>
       </c>
@@ -10418,7 +10363,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45369</v>
       </c>
@@ -10441,7 +10386,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45369</v>
       </c>
@@ -10464,7 +10409,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45369</v>
       </c>
@@ -10487,7 +10432,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45369</v>
       </c>
@@ -10510,7 +10455,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45369</v>
       </c>
@@ -10533,7 +10478,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45369</v>
       </c>
@@ -10556,7 +10501,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45369</v>
       </c>
@@ -10579,7 +10524,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45369</v>
       </c>
@@ -10602,7 +10547,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45369</v>
       </c>
@@ -10625,7 +10570,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45369</v>
       </c>
@@ -10648,7 +10593,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45369</v>
       </c>
@@ -10671,7 +10616,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45369</v>
       </c>
@@ -10694,7 +10639,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45369</v>
       </c>
@@ -10717,7 +10662,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45369</v>
       </c>
@@ -10740,7 +10685,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45369</v>
       </c>
@@ -10763,7 +10708,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45369</v>
       </c>
@@ -10786,7 +10731,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45369</v>
       </c>
@@ -10809,7 +10754,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45369</v>
       </c>
@@ -10832,7 +10777,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45369</v>
       </c>
@@ -10855,7 +10800,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45369</v>
       </c>
@@ -10878,7 +10823,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45369</v>
       </c>
@@ -10898,7 +10843,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45369</v>
       </c>
@@ -10921,7 +10866,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45369</v>
       </c>
@@ -10944,7 +10889,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45369</v>
       </c>
@@ -10967,7 +10912,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45369</v>
       </c>
@@ -10987,7 +10932,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45369</v>
       </c>
@@ -11007,7 +10952,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45369</v>
       </c>
@@ -11030,7 +10975,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45369</v>
       </c>
@@ -11053,7 +10998,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45369</v>
       </c>
@@ -11076,7 +11021,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45370</v>
       </c>
@@ -11099,7 +11044,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45370</v>
       </c>
@@ -11122,7 +11067,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45370</v>
       </c>
@@ -11145,7 +11090,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45370</v>
       </c>
@@ -11165,7 +11110,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45370</v>
       </c>
@@ -11188,7 +11133,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45370</v>
       </c>
@@ -11211,7 +11156,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45370</v>
       </c>
@@ -11234,7 +11179,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45370</v>
       </c>
@@ -11257,7 +11202,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45370</v>
       </c>
@@ -11280,7 +11225,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45370</v>
       </c>
@@ -11303,7 +11248,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45370</v>
       </c>
@@ -11326,7 +11271,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45370</v>
       </c>
@@ -11349,7 +11294,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45370</v>
       </c>
@@ -11369,7 +11314,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45370</v>
       </c>
@@ -11392,7 +11337,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45370</v>
       </c>
@@ -11415,7 +11360,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45370</v>
       </c>
@@ -11438,7 +11383,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45370</v>
       </c>
@@ -11461,7 +11406,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45370</v>
       </c>
@@ -11484,7 +11429,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45370</v>
       </c>
@@ -11507,7 +11452,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45370</v>
       </c>
@@ -11530,7 +11475,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45370</v>
       </c>
@@ -11553,7 +11498,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45370</v>
       </c>
@@ -11576,7 +11521,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45370</v>
       </c>
@@ -11599,7 +11544,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45370</v>
       </c>
@@ -11622,7 +11567,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45370</v>
       </c>
@@ -11645,7 +11590,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45370</v>
       </c>
@@ -11668,7 +11613,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45370</v>
       </c>
@@ -11691,7 +11636,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45370</v>
       </c>
@@ -11714,7 +11659,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45370</v>
       </c>
@@ -11737,7 +11682,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45370</v>
       </c>
@@ -11760,7 +11705,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45370</v>
       </c>
@@ -11783,7 +11728,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45370</v>
       </c>
@@ -11806,7 +11751,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45370</v>
       </c>
@@ -11826,7 +11771,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45370</v>
       </c>
@@ -11849,7 +11794,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45370</v>
       </c>
@@ -11872,7 +11817,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45370</v>
       </c>
@@ -11895,7 +11840,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45370</v>
       </c>
@@ -11918,7 +11863,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45370</v>
       </c>
@@ -11941,7 +11886,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45370</v>
       </c>
@@ -11964,7 +11909,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45370</v>
       </c>
@@ -11987,7 +11932,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45370</v>
       </c>
@@ -12010,7 +11955,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45370</v>
       </c>
@@ -12033,7 +11978,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45370</v>
       </c>
@@ -12056,7 +12001,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45370</v>
       </c>
@@ -12079,7 +12024,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45370</v>
       </c>
@@ -12102,7 +12047,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45370</v>
       </c>
@@ -12125,7 +12070,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45370</v>
       </c>
@@ -12148,7 +12093,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45370</v>
       </c>
@@ -12171,7 +12116,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45370</v>
       </c>
@@ -12194,7 +12139,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45370</v>
       </c>
@@ -12217,7 +12162,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45370</v>
       </c>
@@ -12240,7 +12185,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45370</v>
       </c>
@@ -12263,7 +12208,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45370</v>
       </c>
@@ -12286,7 +12231,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45370</v>
       </c>
@@ -12309,7 +12254,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45370</v>
       </c>
@@ -12332,7 +12277,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45370</v>
       </c>
@@ -12355,7 +12300,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45370</v>
       </c>
@@ -12378,7 +12323,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45370</v>
       </c>
@@ -12401,7 +12346,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45370</v>
       </c>
@@ -12424,7 +12369,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45370</v>
       </c>
@@ -12447,7 +12392,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45370</v>
       </c>
@@ -12470,7 +12415,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45370</v>
       </c>
@@ -12493,7 +12438,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45370</v>
       </c>
@@ -12516,7 +12461,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45370</v>
       </c>
@@ -12539,7 +12484,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45370</v>
       </c>
@@ -12562,7 +12507,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45370</v>
       </c>
@@ -12585,7 +12530,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45370</v>
       </c>
@@ -12608,7 +12553,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45370</v>
       </c>
@@ -12631,7 +12576,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45370</v>
       </c>
@@ -12654,7 +12599,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45370</v>
       </c>
@@ -12677,7 +12622,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45370</v>
       </c>
@@ -12700,7 +12645,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45370</v>
       </c>
@@ -12723,7 +12668,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45370</v>
       </c>
@@ -12746,7 +12691,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45370</v>
       </c>
@@ -12769,7 +12714,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45370</v>
       </c>
@@ -12792,7 +12737,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45370</v>
       </c>
@@ -12815,7 +12760,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45370</v>
       </c>
@@ -12838,7 +12783,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45370</v>
       </c>
@@ -12861,7 +12806,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45370</v>
       </c>
@@ -12884,7 +12829,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45370</v>
       </c>
@@ -12907,7 +12852,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45370</v>
       </c>
@@ -12930,7 +12875,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45370</v>
       </c>
@@ -12953,7 +12898,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45370</v>
       </c>
@@ -12976,7 +12921,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45370</v>
       </c>
@@ -12999,7 +12944,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45370</v>
       </c>
@@ -13022,7 +12967,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45370</v>
       </c>
@@ -13045,7 +12990,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45370</v>
       </c>
@@ -13068,7 +13013,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45370</v>
       </c>
@@ -13091,7 +13036,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45370</v>
       </c>
@@ -13114,7 +13059,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45370</v>
       </c>
@@ -13137,7 +13082,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45370</v>
       </c>
@@ -13160,7 +13105,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45370</v>
       </c>
@@ -13183,7 +13128,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45370</v>
       </c>
@@ -13206,7 +13151,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45370</v>
       </c>
@@ -13229,7 +13174,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>45370</v>
       </c>
@@ -13252,7 +13197,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>45370</v>
       </c>
@@ -13275,7 +13220,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>45370</v>
       </c>
@@ -13298,7 +13243,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>45370</v>
       </c>
@@ -13321,7 +13266,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>45370</v>
       </c>
@@ -13344,7 +13289,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>45370</v>
       </c>
@@ -13367,7 +13312,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>45370</v>
       </c>
@@ -13390,7 +13335,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>45370</v>
       </c>
@@ -13413,7 +13358,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>45370</v>
       </c>
@@ -13436,7 +13381,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>45370</v>
       </c>
@@ -13459,7 +13404,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>45370</v>
       </c>
@@ -13482,7 +13427,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>45371</v>
       </c>
@@ -13505,7 +13450,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>45371</v>
       </c>
@@ -13528,7 +13473,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>45371</v>
       </c>
@@ -13551,7 +13496,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>45371</v>
       </c>
@@ -13574,7 +13519,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>45371</v>
       </c>
@@ -13597,7 +13542,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>45371</v>
       </c>
@@ -13620,7 +13565,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>45371</v>
       </c>
@@ -13643,7 +13588,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>45371</v>
       </c>
@@ -13666,7 +13611,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>45371</v>
       </c>
@@ -13689,7 +13634,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45371</v>
       </c>
@@ -13712,7 +13657,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>45371</v>
       </c>
@@ -13735,7 +13680,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45371</v>
       </c>
@@ -13758,7 +13703,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>45371</v>
       </c>
@@ -13781,7 +13726,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>45371</v>
       </c>
@@ -13804,7 +13749,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45371</v>
       </c>
@@ -13827,7 +13772,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>45371</v>
       </c>
@@ -13850,7 +13795,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>45371</v>
       </c>
@@ -13873,7 +13818,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>45371</v>
       </c>
@@ -13896,7 +13841,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>45371</v>
       </c>
@@ -13919,7 +13864,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>45371</v>
       </c>
@@ -13942,7 +13887,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>45371</v>
       </c>
@@ -13965,7 +13910,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>45371</v>
       </c>
@@ -13988,7 +13933,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>45371</v>
       </c>
@@ -14011,7 +13956,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>45371</v>
       </c>
@@ -14034,7 +13979,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>45371</v>
       </c>
@@ -14057,7 +14002,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>45371</v>
       </c>
@@ -14080,7 +14025,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>45371</v>
       </c>
@@ -14103,7 +14048,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>45371</v>
       </c>
@@ -14126,7 +14071,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>45371</v>
       </c>
@@ -14149,7 +14094,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>45371</v>
       </c>
@@ -14172,7 +14117,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>45371</v>
       </c>
@@ -14195,7 +14140,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>45371</v>
       </c>
@@ -14218,7 +14163,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>45371</v>
       </c>
@@ -14241,7 +14186,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>45371</v>
       </c>
@@ -14264,7 +14209,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>45371</v>
       </c>
@@ -14287,7 +14232,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>45371</v>
       </c>
@@ -14310,7 +14255,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>45371</v>
       </c>
@@ -14333,7 +14278,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>45371</v>
       </c>
@@ -14356,7 +14301,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>45371</v>
       </c>
@@ -14379,7 +14324,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>45371</v>
       </c>
@@ -14402,7 +14347,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>45371</v>
       </c>
@@ -14425,7 +14370,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>45371</v>
       </c>
@@ -14448,7 +14393,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>45371</v>
       </c>
@@ -14471,7 +14416,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>45371</v>
       </c>
@@ -14494,7 +14439,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>45371</v>
       </c>
@@ -14517,7 +14462,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>45371</v>
       </c>
@@ -14537,7 +14482,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>45371</v>
       </c>
@@ -14560,7 +14505,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>45371</v>
       </c>
@@ -14583,7 +14528,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>45371</v>
       </c>
@@ -14606,7 +14551,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>45371</v>
       </c>
@@ -14629,7 +14574,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>45371</v>
       </c>
@@ -14652,7 +14597,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>45371</v>
       </c>
@@ -14675,7 +14620,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>45371</v>
       </c>
@@ -14698,7 +14643,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>45371</v>
       </c>
@@ -14721,7 +14666,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>45371</v>
       </c>
@@ -14744,7 +14689,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>45371</v>
       </c>
@@ -14767,7 +14712,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>45371</v>
       </c>
@@ -14790,7 +14735,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>45371</v>
       </c>
@@ -14813,7 +14758,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>45371</v>
       </c>
@@ -14836,7 +14781,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>45371</v>
       </c>
@@ -14859,7 +14804,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>45371</v>
       </c>
@@ -14882,7 +14827,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>45371</v>
       </c>
@@ -14905,7 +14850,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>45371</v>
       </c>
@@ -14928,7 +14873,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>45371</v>
       </c>
@@ -14951,7 +14896,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>45371</v>
       </c>
@@ -14974,7 +14919,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>45371</v>
       </c>
@@ -14997,7 +14942,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>45371</v>
       </c>
@@ -15020,7 +14965,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>45371</v>
       </c>
@@ -15043,7 +14988,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>45371</v>
       </c>
@@ -15066,7 +15011,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>45371</v>
       </c>
@@ -15089,7 +15034,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>45371</v>
       </c>
@@ -15112,7 +15057,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>45371</v>
       </c>
@@ -15135,7 +15080,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>45371</v>
       </c>
@@ -15155,7 +15100,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>45371</v>
       </c>
@@ -15178,7 +15123,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>45371</v>
       </c>
@@ -15201,7 +15146,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>45371</v>
       </c>
@@ -15224,7 +15169,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>45371</v>
       </c>
@@ -15247,7 +15192,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>45371</v>
       </c>
@@ -15270,7 +15215,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>45371</v>
       </c>
@@ -15293,7 +15238,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>45371</v>
       </c>
@@ -15316,7 +15261,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>45371</v>
       </c>
@@ -15339,7 +15284,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>45371</v>
       </c>
@@ -15362,7 +15307,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>45371</v>
       </c>
@@ -15385,7 +15330,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>45371</v>
       </c>
@@ -15408,7 +15353,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>45371</v>
       </c>
@@ -15431,7 +15376,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>45371</v>
       </c>
@@ -15454,7 +15399,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>45371</v>
       </c>
@@ -15477,7 +15422,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>45371</v>
       </c>
@@ -15500,7 +15445,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>45371</v>
       </c>
@@ -15523,7 +15468,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>45371</v>
       </c>
@@ -15546,7 +15491,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>45371</v>
       </c>
@@ -15569,7 +15514,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>45371</v>
       </c>
@@ -15592,7 +15537,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>45371</v>
       </c>
@@ -15615,7 +15560,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>45371</v>
       </c>
@@ -15638,7 +15583,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>45371</v>
       </c>
@@ -15661,7 +15606,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>45371</v>
       </c>
@@ -15684,7 +15629,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>45371</v>
       </c>
@@ -15707,7 +15652,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>45371</v>
       </c>
@@ -15730,7 +15675,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>45371</v>
       </c>
@@ -15753,7 +15698,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>45371</v>
       </c>
@@ -15776,7 +15721,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>45371</v>
       </c>
@@ -15799,7 +15744,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>45371</v>
       </c>
@@ -15822,7 +15767,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>45371</v>
       </c>
@@ -15845,7 +15790,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>45371</v>
       </c>
@@ -15865,7 +15810,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>45371</v>
       </c>
@@ -15888,7 +15833,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>45371</v>
       </c>
@@ -15911,7 +15856,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>45371</v>
       </c>
@@ -15934,7 +15879,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>45371</v>
       </c>
@@ -15963,14 +15908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C450"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15981,7 +15926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>794</v>
       </c>
@@ -15992,7 +15937,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1098</v>
       </c>
@@ -16003,7 +15948,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>685</v>
       </c>
@@ -16014,7 +15959,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>682</v>
       </c>
@@ -16025,7 +15970,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>818</v>
       </c>
@@ -16036,7 +15981,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>785</v>
       </c>
@@ -16047,7 +15992,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>786</v>
       </c>
@@ -16058,7 +16003,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>600</v>
       </c>
@@ -16069,7 +16014,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>677</v>
       </c>
@@ -16080,7 +16025,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>796</v>
       </c>
@@ -16091,7 +16036,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>731</v>
       </c>
@@ -16102,7 +16047,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>732</v>
       </c>
@@ -16113,7 +16058,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>380</v>
       </c>
@@ -16124,7 +16069,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>758</v>
       </c>
@@ -16135,7 +16080,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>693</v>
       </c>
@@ -16146,7 +16091,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>671</v>
       </c>
@@ -16157,7 +16102,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -16168,7 +16113,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>687</v>
       </c>
@@ -16179,7 +16124,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>663</v>
       </c>
@@ -16190,7 +16135,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>734</v>
       </c>
@@ -16201,7 +16146,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>628</v>
       </c>
@@ -16212,7 +16157,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>604</v>
       </c>
@@ -16223,7 +16168,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>820</v>
       </c>
@@ -16234,7 +16179,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1099</v>
       </c>
@@ -16245,7 +16190,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>630</v>
       </c>
@@ -16256,7 +16201,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>805</v>
       </c>
@@ -16267,7 +16212,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -16278,7 +16223,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>631</v>
       </c>
@@ -16289,7 +16234,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>737</v>
       </c>
@@ -16300,7 +16245,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>791</v>
       </c>
@@ -16311,7 +16256,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>784</v>
       </c>
@@ -16322,7 +16267,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>738</v>
       </c>
@@ -16333,7 +16278,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>824</v>
       </c>
@@ -16344,7 +16289,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>606</v>
       </c>
@@ -16355,7 +16300,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>798</v>
       </c>
@@ -16366,7 +16311,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>827</v>
       </c>
@@ -16377,7 +16322,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>668</v>
       </c>
@@ -16388,7 +16333,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>611</v>
       </c>
@@ -16399,7 +16344,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>808</v>
       </c>
@@ -16410,7 +16355,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>660</v>
       </c>
@@ -16421,7 +16366,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>672</v>
       </c>
@@ -16432,7 +16377,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>788</v>
       </c>
@@ -16443,7 +16388,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>789</v>
       </c>
@@ -16454,7 +16399,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>831</v>
       </c>
@@ -16465,7 +16410,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>684</v>
       </c>
@@ -16476,7 +16421,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>833</v>
       </c>
@@ -16487,7 +16432,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>834</v>
       </c>
@@ -16498,7 +16443,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>802</v>
       </c>
@@ -16509,7 +16454,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>667</v>
       </c>
@@ -16520,7 +16465,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -16531,7 +16476,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>646</v>
       </c>
@@ -16542,7 +16487,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>618</v>
       </c>
@@ -16553,7 +16498,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>648</v>
       </c>
@@ -16564,7 +16509,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>770</v>
       </c>
@@ -16575,7 +16520,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>836</v>
       </c>
@@ -16586,7 +16531,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>650</v>
       </c>
@@ -16597,7 +16542,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>837</v>
       </c>
@@ -16608,7 +16553,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>619</v>
       </c>
@@ -16619,7 +16564,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>651</v>
       </c>
@@ -16630,7 +16575,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>771</v>
       </c>
@@ -16641,7 +16586,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>676</v>
       </c>
@@ -16652,7 +16597,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>281</v>
       </c>
@@ -16663,7 +16608,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>306</v>
       </c>
@@ -16674,7 +16619,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1100</v>
       </c>
@@ -16685,7 +16630,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>360</v>
       </c>
@@ -16696,7 +16641,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>728</v>
       </c>
@@ -16707,7 +16652,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>623</v>
       </c>
@@ -16718,7 +16663,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>658</v>
       </c>
@@ -16729,7 +16674,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>750</v>
       </c>
@@ -16740,7 +16685,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>803</v>
       </c>
@@ -16751,7 +16696,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>596</v>
       </c>
@@ -16762,7 +16707,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>840</v>
       </c>
@@ -16773,7 +16718,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>752</v>
       </c>
@@ -16784,7 +16729,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>680</v>
       </c>
@@ -16795,7 +16740,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>385</v>
       </c>
@@ -16806,7 +16751,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>681</v>
       </c>
@@ -16817,7 +16762,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>814</v>
       </c>
@@ -16828,7 +16773,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>662</v>
       </c>
@@ -16839,7 +16784,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>711</v>
       </c>
@@ -16850,7 +16795,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>264</v>
       </c>
@@ -16861,7 +16806,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>353</v>
       </c>
@@ -16872,7 +16817,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>324</v>
       </c>
@@ -16883,7 +16828,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -16894,7 +16839,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>772</v>
       </c>
@@ -16905,7 +16850,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>366</v>
       </c>
@@ -16916,7 +16861,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -16927,7 +16872,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>815</v>
       </c>
@@ -16938,7 +16883,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>773</v>
       </c>
@@ -16949,7 +16894,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>673</v>
       </c>
@@ -16960,7 +16905,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>729</v>
       </c>
@@ -16971,7 +16916,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>367</v>
       </c>
@@ -16982,7 +16927,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1101</v>
       </c>
@@ -16993,7 +16938,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>315</v>
       </c>
@@ -17004,7 +16949,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>289</v>
       </c>
@@ -17015,7 +16960,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>330</v>
       </c>
@@ -17026,7 +16971,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -17037,7 +16982,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>307</v>
       </c>
@@ -17048,7 +16993,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>816</v>
       </c>
@@ -17059,7 +17004,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>386</v>
       </c>
@@ -17070,7 +17015,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>342</v>
       </c>
@@ -17081,7 +17026,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>299</v>
       </c>
@@ -17092,7 +17037,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>753</v>
       </c>
@@ -17103,7 +17048,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>691</v>
       </c>
@@ -17114,7 +17059,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>266</v>
       </c>
@@ -17125,7 +17070,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>774</v>
       </c>
@@ -17136,7 +17081,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>730</v>
       </c>
@@ -17147,7 +17092,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>809</v>
       </c>
@@ -17158,7 +17103,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>754</v>
       </c>
@@ -17169,7 +17114,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>775</v>
       </c>
@@ -17180,7 +17125,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>727</v>
       </c>
@@ -17191,7 +17136,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>377</v>
       </c>
@@ -17202,7 +17147,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>817</v>
       </c>
@@ -17213,7 +17158,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>285</v>
       </c>
@@ -17224,7 +17169,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>270</v>
       </c>
@@ -17235,7 +17180,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1102</v>
       </c>
@@ -17246,7 +17191,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>267</v>
       </c>
@@ -17257,7 +17202,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>755</v>
       </c>
@@ -17268,7 +17213,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>318</v>
       </c>
@@ -17279,7 +17224,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>357</v>
       </c>
@@ -17290,7 +17235,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>599</v>
       </c>
@@ -17301,7 +17246,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1103</v>
       </c>
@@ -17312,7 +17257,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>361</v>
       </c>
@@ -17323,7 +17268,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>378</v>
       </c>
@@ -17334,7 +17279,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>625</v>
       </c>
@@ -17345,7 +17290,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>348</v>
       </c>
@@ -17356,7 +17301,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>757</v>
       </c>
@@ -17367,7 +17312,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1104</v>
       </c>
@@ -17378,7 +17323,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>352</v>
       </c>
@@ -17389,7 +17334,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>362</v>
       </c>
@@ -17400,7 +17345,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>686</v>
       </c>
@@ -17411,7 +17356,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>819</v>
       </c>
@@ -17422,7 +17367,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -17433,7 +17378,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -17444,7 +17389,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>374</v>
       </c>
@@ -17455,7 +17400,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>790</v>
       </c>
@@ -17466,7 +17411,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -17477,7 +17422,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>626</v>
       </c>
@@ -17488,7 +17433,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>601</v>
       </c>
@@ -17499,7 +17444,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>783</v>
       </c>
@@ -17510,7 +17455,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>372</v>
       </c>
@@ -17521,7 +17466,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>390</v>
       </c>
@@ -17532,7 +17477,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>312</v>
       </c>
@@ -17543,7 +17488,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>379</v>
       </c>
@@ -17554,7 +17499,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>272</v>
       </c>
@@ -17565,7 +17510,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>692</v>
       </c>
@@ -17576,7 +17521,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>778</v>
       </c>
@@ -17587,7 +17532,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>804</v>
       </c>
@@ -17598,7 +17543,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1105</v>
       </c>
@@ -17609,7 +17554,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -17620,7 +17565,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -17631,7 +17576,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>694</v>
       </c>
@@ -17642,7 +17587,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>733</v>
       </c>
@@ -17653,7 +17598,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>688</v>
       </c>
@@ -17664,7 +17609,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>395</v>
       </c>
@@ -17675,7 +17620,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>370</v>
       </c>
@@ -17686,7 +17631,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>759</v>
       </c>
@@ -17697,7 +17642,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>279</v>
       </c>
@@ -17708,7 +17653,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>627</v>
       </c>
@@ -17719,7 +17664,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>387</v>
       </c>
@@ -17730,7 +17675,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>602</v>
       </c>
@@ -17741,7 +17686,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>603</v>
       </c>
@@ -17752,7 +17697,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>363</v>
       </c>
@@ -17763,7 +17708,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>373</v>
       </c>
@@ -17774,7 +17719,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>282</v>
       </c>
@@ -17785,7 +17730,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>295</v>
       </c>
@@ -17796,7 +17741,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>309</v>
       </c>
@@ -17807,7 +17752,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>268</v>
       </c>
@@ -17818,7 +17763,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -17829,7 +17774,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>629</v>
       </c>
@@ -17840,7 +17785,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>364</v>
       </c>
@@ -17851,7 +17796,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>278</v>
       </c>
@@ -17862,7 +17807,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>341</v>
       </c>
@@ -17873,7 +17818,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>349</v>
       </c>
@@ -17884,7 +17829,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>657</v>
       </c>
@@ -17895,7 +17840,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>669</v>
       </c>
@@ -17906,7 +17851,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1106</v>
       </c>
@@ -17917,7 +17862,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>319</v>
       </c>
@@ -17928,7 +17873,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>253</v>
       </c>
@@ -17939,7 +17884,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>302</v>
       </c>
@@ -17950,7 +17895,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>336</v>
       </c>
@@ -17961,7 +17906,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>391</v>
       </c>
@@ -17972,7 +17917,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>343</v>
       </c>
@@ -17983,7 +17928,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>333</v>
       </c>
@@ -17994,7 +17939,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>280</v>
       </c>
@@ -18005,7 +17950,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>780</v>
       </c>
@@ -18016,7 +17961,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>337</v>
       </c>
@@ -18027,7 +17972,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>276</v>
       </c>
@@ -18038,7 +17983,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>301</v>
       </c>
@@ -18049,7 +17994,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>632</v>
       </c>
@@ -18060,7 +18005,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>633</v>
       </c>
@@ -18071,7 +18016,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>736</v>
       </c>
@@ -18082,7 +18027,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>290</v>
       </c>
@@ -18093,7 +18038,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>344</v>
       </c>
@@ -18104,7 +18049,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>797</v>
       </c>
@@ -18115,7 +18060,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>316</v>
       </c>
@@ -18126,7 +18071,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>317</v>
       </c>
@@ -18137,7 +18082,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -18148,7 +18093,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>792</v>
       </c>
@@ -18159,7 +18104,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>659</v>
       </c>
@@ -18170,7 +18115,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1107</v>
       </c>
@@ -18181,7 +18126,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>822</v>
       </c>
@@ -18192,7 +18137,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>283</v>
       </c>
@@ -18203,7 +18148,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>388</v>
       </c>
@@ -18214,7 +18159,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1108</v>
       </c>
@@ -18225,7 +18170,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>634</v>
       </c>
@@ -18236,7 +18181,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>293</v>
       </c>
@@ -18247,7 +18192,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>371</v>
       </c>
@@ -18258,7 +18203,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>760</v>
       </c>
@@ -18269,7 +18214,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>358</v>
       </c>
@@ -18280,7 +18225,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>389</v>
       </c>
@@ -18291,7 +18236,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>739</v>
       </c>
@@ -18302,7 +18247,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>345</v>
       </c>
@@ -18313,7 +18258,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>678</v>
       </c>
@@ -18324,7 +18269,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>605</v>
       </c>
@@ -18335,7 +18280,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>675</v>
       </c>
@@ -18346,7 +18291,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>303</v>
       </c>
@@ -18357,7 +18302,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>823</v>
       </c>
@@ -18368,7 +18313,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>304</v>
       </c>
@@ -18379,7 +18324,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1109</v>
       </c>
@@ -18390,7 +18335,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>368</v>
       </c>
@@ -18401,7 +18346,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>365</v>
       </c>
@@ -18412,7 +18357,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>636</v>
       </c>
@@ -18423,7 +18368,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1110</v>
       </c>
@@ -18434,7 +18379,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>637</v>
       </c>
@@ -18445,7 +18390,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>325</v>
       </c>
@@ -18456,7 +18401,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>638</v>
       </c>
@@ -18467,7 +18412,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>740</v>
       </c>
@@ -18478,7 +18423,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>607</v>
       </c>
@@ -18489,7 +18434,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>381</v>
       </c>
@@ -18500,7 +18445,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>825</v>
       </c>
@@ -18511,7 +18456,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>286</v>
       </c>
@@ -18522,7 +18467,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>761</v>
       </c>
@@ -18533,7 +18478,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>762</v>
       </c>
@@ -18544,7 +18489,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>664</v>
       </c>
@@ -18555,7 +18500,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>639</v>
       </c>
@@ -18566,7 +18511,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>799</v>
       </c>
@@ -18577,7 +18522,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>269</v>
       </c>
@@ -18588,7 +18533,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>826</v>
       </c>
@@ -18599,7 +18544,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>335</v>
       </c>
@@ -18610,7 +18555,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>608</v>
       </c>
@@ -18621,7 +18566,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>828</v>
       </c>
@@ -18632,7 +18577,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>359</v>
       </c>
@@ -18643,7 +18588,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1111</v>
       </c>
@@ -18654,7 +18599,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>320</v>
       </c>
@@ -18665,7 +18610,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>356</v>
       </c>
@@ -18676,7 +18621,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -18687,7 +18632,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>640</v>
       </c>
@@ -18698,7 +18643,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>338</v>
       </c>
@@ -18709,7 +18654,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>741</v>
       </c>
@@ -18720,7 +18665,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -18731,7 +18676,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1112</v>
       </c>
@@ -18742,7 +18687,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>829</v>
       </c>
@@ -18753,7 +18698,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>830</v>
       </c>
@@ -18764,7 +18709,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>321</v>
       </c>
@@ -18775,7 +18720,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1113</v>
       </c>
@@ -18786,7 +18731,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>339</v>
       </c>
@@ -18797,7 +18742,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>326</v>
       </c>
@@ -18808,7 +18753,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -18819,7 +18764,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -18830,7 +18775,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>382</v>
       </c>
@@ -18841,7 +18786,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>781</v>
       </c>
@@ -18852,7 +18797,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>612</v>
       </c>
@@ -18863,7 +18808,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>641</v>
       </c>
@@ -18874,7 +18819,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -18885,7 +18830,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>689</v>
       </c>
@@ -18896,7 +18841,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>613</v>
       </c>
@@ -18907,7 +18852,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>346</v>
       </c>
@@ -18918,7 +18863,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>327</v>
       </c>
@@ -18929,7 +18874,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>642</v>
       </c>
@@ -18940,7 +18885,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1114</v>
       </c>
@@ -18951,7 +18896,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>665</v>
       </c>
@@ -18962,7 +18907,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>643</v>
       </c>
@@ -18973,7 +18918,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>311</v>
       </c>
@@ -18984,7 +18929,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>254</v>
       </c>
@@ -18995,7 +18940,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>782</v>
       </c>
@@ -19006,7 +18951,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>666</v>
       </c>
@@ -19017,7 +18962,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>679</v>
       </c>
@@ -19028,7 +18973,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>683</v>
       </c>
@@ -19039,7 +18984,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -19050,7 +18995,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>260</v>
       </c>
@@ -19061,7 +19006,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1115</v>
       </c>
@@ -19072,7 +19017,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>644</v>
       </c>
@@ -19083,7 +19028,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>764</v>
       </c>
@@ -19094,7 +19039,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>742</v>
       </c>
@@ -19105,7 +19050,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>614</v>
       </c>
@@ -19116,7 +19061,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>645</v>
       </c>
@@ -19127,7 +19072,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>765</v>
       </c>
@@ -19138,7 +19083,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>615</v>
       </c>
@@ -19149,7 +19094,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>616</v>
       </c>
@@ -19160,7 +19105,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>766</v>
       </c>
@@ -19171,7 +19116,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>806</v>
       </c>
@@ -19182,7 +19127,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>328</v>
       </c>
@@ -19193,7 +19138,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>369</v>
       </c>
@@ -19204,7 +19149,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>743</v>
       </c>
@@ -19215,7 +19160,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>263</v>
       </c>
@@ -19226,7 +19171,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>832</v>
       </c>
@@ -19237,7 +19182,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>744</v>
       </c>
@@ -19248,7 +19193,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>383</v>
       </c>
@@ -19259,7 +19204,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>800</v>
       </c>
@@ -19270,7 +19215,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1116</v>
       </c>
@@ -19281,7 +19226,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>297</v>
       </c>
@@ -19292,7 +19237,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1117</v>
       </c>
@@ -19303,7 +19248,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1118</v>
       </c>
@@ -19314,7 +19259,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -19325,7 +19270,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>767</v>
       </c>
@@ -19336,7 +19281,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>350</v>
       </c>
@@ -19347,7 +19292,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>340</v>
       </c>
@@ -19358,7 +19303,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>768</v>
       </c>
@@ -19369,7 +19314,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>393</v>
       </c>
@@ -19380,7 +19325,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>394</v>
       </c>
@@ -19391,7 +19336,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>305</v>
       </c>
@@ -19402,7 +19347,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>261</v>
       </c>
@@ -19413,7 +19358,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>294</v>
       </c>
@@ -19424,7 +19369,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1119</v>
       </c>
@@ -19435,7 +19380,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>277</v>
       </c>
@@ -19446,7 +19391,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>291</v>
       </c>
@@ -19457,7 +19402,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>617</v>
       </c>
@@ -19468,7 +19413,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>647</v>
       </c>
@@ -19479,7 +19424,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>347</v>
       </c>
@@ -19490,7 +19435,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>255</v>
       </c>
@@ -19501,7 +19446,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1120</v>
       </c>
@@ -19512,7 +19457,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1121</v>
       </c>
@@ -19523,7 +19468,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>835</v>
       </c>
@@ -19534,7 +19479,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>256</v>
       </c>
@@ -19545,7 +19490,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1122</v>
       </c>
@@ -19556,7 +19501,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>314</v>
       </c>
@@ -19567,7 +19512,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>807</v>
       </c>
@@ -19578,7 +19523,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>351</v>
       </c>
@@ -19589,7 +19534,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>292</v>
       </c>
@@ -19600,7 +19545,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>838</v>
       </c>
@@ -19611,7 +19556,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>652</v>
       </c>
@@ -19622,7 +19567,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>284</v>
       </c>
@@ -19633,7 +19578,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>776</v>
       </c>
@@ -19644,7 +19589,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1123</v>
       </c>
@@ -19652,7 +19597,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1124</v>
       </c>
@@ -19660,7 +19605,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>653</v>
       </c>
@@ -19671,7 +19616,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>839</v>
       </c>
@@ -19682,7 +19627,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>654</v>
       </c>
@@ -19693,7 +19638,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>813</v>
       </c>
@@ -19704,7 +19649,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>620</v>
       </c>
@@ -19715,7 +19660,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>745</v>
       </c>
@@ -19726,7 +19671,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>840</v>
       </c>
@@ -19737,7 +19682,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>621</v>
       </c>
@@ -19748,7 +19693,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>746</v>
       </c>
@@ -19759,7 +19704,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>747</v>
       </c>
@@ -19770,7 +19715,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>772</v>
       </c>
@@ -19781,7 +19726,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>655</v>
       </c>
@@ -19792,7 +19737,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>841</v>
       </c>
@@ -19803,7 +19748,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>773</v>
       </c>
@@ -19814,7 +19759,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>748</v>
       </c>
@@ -19825,7 +19770,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>811</v>
       </c>
@@ -19836,7 +19781,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>812</v>
       </c>
@@ -19847,7 +19792,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>842</v>
       </c>
@@ -19858,7 +19803,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>656</v>
       </c>
@@ -19869,7 +19814,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>810</v>
       </c>
@@ -19880,7 +19825,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>622</v>
       </c>
@@ -19891,7 +19836,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>749</v>
       </c>
@@ -19902,7 +19847,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>774</v>
       </c>
@@ -19913,7 +19858,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>775</v>
       </c>
@@ -19924,7 +19869,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>706</v>
       </c>
@@ -19935,7 +19880,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>707</v>
       </c>
@@ -19946,7 +19891,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>695</v>
       </c>
@@ -19957,7 +19902,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>708</v>
       </c>
@@ -19968,7 +19913,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>709</v>
       </c>
@@ -19979,7 +19924,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>696</v>
       </c>
@@ -19990,7 +19935,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>697</v>
       </c>
@@ -20001,7 +19946,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>710</v>
       </c>
@@ -20012,7 +19957,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>699</v>
       </c>
@@ -20023,7 +19968,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>711</v>
       </c>
@@ -20034,7 +19979,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>712</v>
       </c>
@@ -20045,7 +19990,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>700</v>
       </c>
@@ -20056,7 +20001,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>713</v>
       </c>
@@ -20067,7 +20012,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>714</v>
       </c>
@@ -20078,7 +20023,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>702</v>
       </c>
@@ -20089,7 +20034,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>715</v>
       </c>
@@ -20100,7 +20045,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>703</v>
       </c>
@@ -20111,7 +20056,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>716</v>
       </c>
@@ -20122,7 +20067,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>717</v>
       </c>
@@ -20133,7 +20078,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>718</v>
       </c>
@@ -20144,7 +20089,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>719</v>
       </c>
@@ -20155,7 +20100,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>720</v>
       </c>
@@ -20166,7 +20111,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>721</v>
       </c>
@@ -20177,7 +20122,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>722</v>
       </c>
@@ -20188,7 +20133,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>723</v>
       </c>
@@ -20199,7 +20144,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>705</v>
       </c>
@@ -20210,7 +20155,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>725</v>
       </c>
@@ -20221,7 +20166,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>726</v>
       </c>
@@ -20232,7 +20177,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>375</v>
       </c>
@@ -20243,7 +20188,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>724</v>
       </c>
@@ -20254,7 +20199,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>704</v>
       </c>
@@ -20265,7 +20210,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>670</v>
       </c>
@@ -20276,7 +20221,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>787</v>
       </c>
@@ -20287,7 +20232,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>609</v>
       </c>
@@ -20298,7 +20243,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>690</v>
       </c>
@@ -20309,7 +20254,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>649</v>
       </c>
@@ -20320,7 +20265,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>661</v>
       </c>
@@ -20331,7 +20276,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>259</v>
       </c>
@@ -20342,7 +20287,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1125</v>
       </c>
@@ -20353,7 +20298,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1126</v>
       </c>
@@ -20364,7 +20309,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1127</v>
       </c>
@@ -20375,7 +20320,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1128</v>
       </c>
@@ -20386,7 +20331,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1129</v>
       </c>
@@ -20397,7 +20342,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1130</v>
       </c>
@@ -20408,7 +20353,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1131</v>
       </c>
@@ -20419,7 +20364,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1132</v>
       </c>
@@ -20430,7 +20375,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1133</v>
       </c>
@@ -20441,7 +20386,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1134</v>
       </c>
@@ -20452,7 +20397,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1135</v>
       </c>
@@ -20463,7 +20408,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1136</v>
       </c>
@@ -20474,7 +20419,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1137</v>
       </c>
@@ -20485,7 +20430,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1138</v>
       </c>
@@ -20496,7 +20441,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1139</v>
       </c>
@@ -20507,7 +20452,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1140</v>
       </c>
@@ -20518,7 +20463,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1141</v>
       </c>
@@ -20529,7 +20474,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1142</v>
       </c>
@@ -20540,7 +20485,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1143</v>
       </c>
@@ -20551,7 +20496,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1144</v>
       </c>
@@ -20562,7 +20507,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1145</v>
       </c>
@@ -20573,7 +20518,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1146</v>
       </c>
@@ -20584,7 +20529,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1147</v>
       </c>
@@ -20595,7 +20540,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1148</v>
       </c>
@@ -20606,7 +20551,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1149</v>
       </c>
@@ -20617,7 +20562,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1150</v>
       </c>
@@ -20628,7 +20573,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1151</v>
       </c>
@@ -20639,7 +20584,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1152</v>
       </c>
@@ -20650,7 +20595,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>763</v>
       </c>
@@ -20661,7 +20606,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1153</v>
       </c>
@@ -20672,7 +20617,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1154</v>
       </c>
@@ -20683,7 +20628,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1155</v>
       </c>
@@ -20694,7 +20639,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1156</v>
       </c>
@@ -20705,7 +20650,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1157</v>
       </c>
@@ -20716,7 +20661,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1158</v>
       </c>
@@ -20727,7 +20672,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1159</v>
       </c>
@@ -20738,7 +20683,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1160</v>
       </c>
@@ -20749,7 +20694,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1161</v>
       </c>
@@ -20760,7 +20705,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1162</v>
       </c>
@@ -20771,7 +20716,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1163</v>
       </c>
@@ -20782,7 +20727,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1164</v>
       </c>
@@ -20793,7 +20738,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1165</v>
       </c>
@@ -20804,7 +20749,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1166</v>
       </c>
@@ -20815,7 +20760,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>635</v>
       </c>
@@ -20832,14 +20777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -20862,7 +20807,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1259</v>
       </c>
@@ -20885,7 +20830,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1260</v>
       </c>
@@ -20908,7 +20853,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1261</v>
       </c>
@@ -20931,7 +20876,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1262</v>
       </c>
@@ -20954,7 +20899,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1263</v>
       </c>
@@ -20977,7 +20922,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1264</v>
       </c>
@@ -21000,7 +20945,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1265</v>
       </c>
@@ -21023,7 +20968,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1266</v>
       </c>
@@ -21046,7 +20991,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1267</v>
       </c>
@@ -21069,7 +21014,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1268</v>
       </c>
@@ -21092,7 +21037,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1269</v>
       </c>
@@ -21115,7 +21060,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1270</v>
       </c>
@@ -21138,7 +21083,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1271</v>
       </c>
@@ -21161,7 +21106,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1272</v>
       </c>
@@ -21184,7 +21129,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1273</v>
       </c>
@@ -21213,14 +21158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21252,7 +21197,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45370</v>
       </c>
@@ -21275,7 +21220,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45370</v>
       </c>
@@ -21301,7 +21246,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45371</v>
       </c>

--- a/data/eacl_2024/new_data/inputs.xlsx
+++ b/data/eacl_2024/new_data/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuwei/PycharmProjects/eacl2024-miniconf/data/eacl_2024/new_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488F886-E689-4145-B47E-7F1AC6C56150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085CBAAE-83F5-3D40-B5B1-7233817BE17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="24940" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24940" windowHeight="15620" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials Schedule" sheetId="1" r:id="rId1"/>
@@ -4347,6 +4347,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="49.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4531,12 +4538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5267,13 +5282,18 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5547,9 +5567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -9330,9 +9361,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -15914,6 +15954,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -20783,6 +20828,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -21161,9 +21211,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
